--- a/std-cpp/数据.xlsx
+++ b/std-cpp/数据.xlsx
@@ -1049,16 +1049,16 @@
   <dimension ref="A1:I163"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="5" width="14.375" customWidth="1"/>
-    <col min="6" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="9" width="16.25" customWidth="1"/>
-    <col min="10" max="10" width="14.875" customWidth="1"/>
-    <col min="11" max="11" width="13.625" customWidth="1"/>
+    <col min="2" max="5" width="14.3716814159292" customWidth="1"/>
+    <col min="6" max="7" width="15.1238938053097" customWidth="1"/>
+    <col min="8" max="9" width="16.2477876106195" customWidth="1"/>
+    <col min="10" max="10" width="14.8761061946903" customWidth="1"/>
+    <col min="11" max="11" width="13.6283185840708" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
@@ -5807,17 +5807,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="18.75" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
+    <col min="2" max="2" width="18.3716814159292" customWidth="1"/>
+    <col min="3" max="3" width="16.6283185840708" customWidth="1"/>
+    <col min="4" max="4" width="18.7522123893805" customWidth="1"/>
+    <col min="5" max="5" width="16.6283185840708" customWidth="1"/>
     <col min="6" max="6" width="16" customWidth="1"/>
-    <col min="8" max="8" width="14.625" customWidth="1"/>
+    <col min="8" max="8" width="14.6283185840708" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="14.375" customWidth="1"/>
-    <col min="13" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="14.75" customWidth="1"/>
-    <col min="15" max="15" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="14.3716814159292" customWidth="1"/>
+    <col min="13" max="13" width="14.1238938053097" customWidth="1"/>
+    <col min="14" max="14" width="14.7522123893805" customWidth="1"/>
+    <col min="15" max="15" width="12.7522123893805" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
